--- a/biology/Botanique/Johann_Sievers/Johann_Sievers.xlsx
+++ b/biology/Botanique/Johann_Sievers/Johann_Sievers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann August Carl[note 1] (ou Karl) Sievers (né en 1762 à Peine, mort en 1795) est un botaniste allemand, spécialiste de la flore asiatique. 
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1789, il part faire une expédition en Sibérie à la recherche de rhubarbe (Rheum palmatum).
-Sievers relate ses expéditions à travers des lettres envoyées de 1790 à 1795 depuis l'Oural, l'actuel Kirghizistan et les steppes de Mongolie. Peter Simon Pallas les a publiées dans "Neue Nordische Beyträge" sous le titre "Correspondances de Sievers"[1].
+Sievers relate ses expéditions à travers des lettres envoyées de 1790 à 1795 depuis l'Oural, l'actuel Kirghizistan et les steppes de Mongolie. Peter Simon Pallas les a publiées dans "Neue Nordische Beyträge" sous le titre "Correspondances de Sievers".
 Il a voyagé de 1790 à 1794 de l'Oural à la Daurie (Kiakhta, Irkoutsk, Krasnoïarsk, Abakansk)
 Pendant ses voyages de recherche, Sievers rédigea des notes sur de nombreux spécimens dont Peter Simon Pallas (1741-1811) fit une publication en 1795 sous le titre "Plantae novae ex herbario et schedis defuncti botanici Johannis Sievers descriptae" pour la Nova acta de l'académie impériale des sciences de Saint-Pétersbourg.
 </t>
@@ -545,7 +559,9 @@
           <t>Le découvreur de l'ancêtre du pommier commun</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1793, il est le premier à découvrir des forêts de pommiers sauvages dans le sud-est de l'actuel Kazakhstan. Cette zone, aujourd'hui plus petite, est toujours un refuge pour l'espèce Malus sieversii désormais menacée d'extinction. La mort soudaine de Sievers à 33 ans l'empêcha de décrire cette espèce et c'est Carl Friedrich von Ledebour (1785-1851) qui termina ses travaux trente ans plus tard.
 </t>
@@ -576,7 +592,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">De nombreux végétaux doivent leur nom à Sievers dont le pommier asiatique Malus sieversii (nommé par Carl Friedrich von Ledebour)
 </t>
